--- a/src/test/java/com/pack/testData/RegularSchedules.xlsx
+++ b/src/test/java/com/pack/testData/RegularSchedules.xlsx
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="U13" sqref="U13" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="N1">
+      <selection activeCell="Z2" sqref="Z2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
